--- a/费用:细节/费用细节.xlsx
+++ b/费用:细节/费用细节.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanzhe/Documents/life/三居室/费用:细节/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C06B06C-BA5E-C64D-9B26-8DC8085D6CF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA4F18-D85E-A942-95C9-C1E75775575A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1984,7 +1984,7 @@
         <v>91</v>
       </c>
       <c r="B59" s="1">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>119</v>
@@ -2168,7 +2168,7 @@
     <row r="71" spans="1:13">
       <c r="B71">
         <f>SUM(B2:B70)</f>
-        <v>213656</v>
+        <v>213356</v>
       </c>
       <c r="L71" t="s">
         <v>116</v>
